--- a/tests/fixtures/SDG_11-7-1_AFG.xlsx
+++ b/tests/fixtures/SDG_11-7-1_AFG.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
+  <si>
+    <t>SDG Goal</t>
+  </si>
+  <si>
+    <t>SDG Target</t>
+  </si>
   <si>
     <t>SDG Indicator</t>
   </si>
@@ -53,6 +59,9 @@
   </si>
   <si>
     <t>FootNote</t>
+  </si>
+  <si>
+    <t>11.7</t>
   </si>
   <si>
     <t>11.7.1</t>
@@ -495,16 +504,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,412 +553,478 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9.620736999517074</v>
+      </c>
+      <c r="K2" s="1">
+        <v>56.14663249497103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2">
+        <v>2020</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1">
-        <v>9.620736999517074</v>
-      </c>
-      <c r="I2" s="1">
-        <v>56.14663249497103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2">
-        <v>2020</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1">
+        <v>11.33561615211984</v>
+      </c>
+      <c r="K3" s="1">
+        <v>75.16806775228314</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <v>2020</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1">
+        <v>12.13354278862459</v>
+      </c>
+      <c r="K4" s="1">
+        <v>62.46434304479565</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>2020</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1">
+        <v>13.57448576328211</v>
+      </c>
+      <c r="K5" s="1">
+        <v>70.46493276165731</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>2020</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1">
+        <v>15.31131957914611</v>
+      </c>
+      <c r="K6" s="1">
+        <v>65.58849551554448</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>2020</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1">
+        <v>15.65237728734635</v>
+      </c>
+      <c r="K7" s="1">
+        <v>59.00959287339163</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7">
+        <v>2020</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1">
+        <v>17.19664185043861</v>
+      </c>
+      <c r="K8" s="1">
+        <v>55.55715315423772</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>2020</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1">
+        <v>17.94502586646804</v>
+      </c>
+      <c r="K9" s="1">
+        <v>82.05341295172289</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9">
+        <v>2020</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1">
-        <v>11.33561615211984</v>
-      </c>
-      <c r="I3" s="1">
-        <v>75.16806775228314</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3">
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1">
+        <v>19.89579915361331</v>
+      </c>
+      <c r="K10" s="1">
+        <v>13.04331781258056</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10">
         <v>2020</v>
       </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1">
-        <v>12.13354278862459</v>
-      </c>
-      <c r="I4" s="1">
-        <v>62.46434304479565</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4">
+      <c r="K11" s="1">
+        <v>45.93892891103877</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11">
         <v>2020</v>
       </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1">
-        <v>13.57448576328211</v>
-      </c>
-      <c r="I5" s="1">
-        <v>70.46493276165731</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5">
-        <v>2020</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1">
-        <v>15.31131957914611</v>
-      </c>
-      <c r="I6" s="1">
-        <v>65.58849551554448</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6">
-        <v>2020</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1">
-        <v>15.65237728734635</v>
-      </c>
-      <c r="I7" s="1">
-        <v>59.00959287339163</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7">
-        <v>2020</v>
-      </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="1">
-        <v>17.19664185043861</v>
-      </c>
-      <c r="I8" s="1">
-        <v>55.55715315423772</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8">
-        <v>2020</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1">
-        <v>17.94502586646804</v>
-      </c>
-      <c r="I9" s="1">
-        <v>82.05341295172289</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9">
-        <v>2020</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1">
-        <v>19.89579915361331</v>
-      </c>
-      <c r="I10" s="1">
-        <v>13.04331781258056</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10">
-        <v>2020</v>
-      </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="1">
-        <v>45.93892891103877</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11">
-        <v>2020</v>
-      </c>
-      <c r="L11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" t="s">
-        <v>39</v>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
